--- a/Automation-Framework/ExecutionFiles/ModuleName/Homepage.xlsx
+++ b/Automation-Framework/ExecutionFiles/ModuleName/Homepage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="24" windowWidth="16260" windowHeight="4008"/>
+    <workbookView xWindow="384" yWindow="24" windowWidth="16260" windowHeight="4008" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
@@ -502,8 +502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -578,8 +578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -656,7 +656,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
